--- a/results/I3_N5_M3_T30_C200_DepCentral_s2_P4_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepCentral_s2_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.7290434521012</v>
+        <v>1284.565031796819</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.7290434521012</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7.821303166844173</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4.283234758917612</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10.66483080554379</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.66483080554379</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>25.17182228993174</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.99312545677591</v>
+        <v>22.17869683315583</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>3.516731437002264</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.51673143700226</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.45653196483993</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.27636021569352</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,146 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>43.65499999999986</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>37.03499999999985</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>41.29499999999985</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>39.50999999999986</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>43.86999999999985</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>154.9200000000004</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>152.65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>157.9800000000004</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>156.3850000000004</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.7900000000004</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>41.16999999999935</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.71499999999935</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>37.85999999999935</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>47.65</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>45.31999999999935</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3399999999997</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>159.2049999999997</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4299999999997</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9949999999997</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.23500000000072</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52500000000073</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78500000000072</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>52.23500000000072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>44.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>44.52500000000073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>45.78500000000072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>50.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>154.9200000000004</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>152.65</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>157.9800000000004</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.3850000000004</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7900000000004</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>147.3399999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.2049999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>140.4299999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>157.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>152.9949999999997</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -1750,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1970,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,6 +2248,116 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
